--- a/data/teksttabell.xlsx
+++ b/data/teksttabell.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8c3fb2a472a4d152/Skrivebord/R/IDR4000-bookdown/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{0C92C617-62F2-42F4-A107-BB1ABC00B0A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{0B6A0396-89ED-4AA3-9A8C-ADA6B0648967}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="8_{0C92C617-62F2-42F4-A107-BB1ABC00B0A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{8CD40B4A-8CDB-4982-8A8B-6CCED0E97A22}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="360" windowWidth="19200" windowHeight="9840" xr2:uid="{632F62E5-C8DF-406E-B0C9-9B29FA775113}"/>
   </bookViews>
@@ -39,9 +39,6 @@
     <t>Studie</t>
   </si>
   <si>
-    <t>Studiespørsmål</t>
-  </si>
-  <si>
     <t>Hypoteser</t>
   </si>
   <si>
@@ -66,9 +63,6 @@
     <t>Vil gjøre det lettere | å gi treingsanbefalinger for godt fungerende eldre</t>
   </si>
   <si>
-    <t>Effekten av 10-ukers trening med enkle styrkeøvelser og lite utstyr ledet av instruktør på personer med presarkopeni. Hovedspørsmålene er om treningen gir effekt på funksjonell styrke og om det påvirker kroppssammensetningen</t>
-  </si>
-  <si>
     <t>Styrketreningen vil | gi positiv effekt på funksjonell styrke</t>
   </si>
   <si>
@@ -81,9 +75,6 @@
     <t>Styrketrening med enkelt utstyr som man kan gjøre nesten hvor som helst er effektivt for å hindre tap av muskelstyrke og øke muskelmasse for eldre med presarkopeni</t>
   </si>
   <si>
-    <t>Hva er styrketreningseffekten på eldre mennesker, spesielt med tanke på helse relatert til livskvalitet, men også styrke, kroppssammensetning og funksjonell kapasitet</t>
-  </si>
-  <si>
     <t>Styrketreningen vil | gi god effekt på muskelmassen og styrken som igjen vil øke helse relatert til livskvalitet.</t>
   </si>
   <si>
@@ -114,9 +105,6 @@
     <t>Ikke sammenheng mellom treningsfrekvens og ganghastighet eller kroppssammensetning. Alle skilte seg fra kontrollgruppen Dose-respons i forhold til 1RM og dynamisk styrke (i treningsapparat)</t>
   </si>
   <si>
-    <t>Sammenligne effekten av intensiv frivektstrening med apparattrening hos godt fungerende eldre mennesker.</t>
-  </si>
-  <si>
     <t>Begge gruppene vil ha en fremgang i styrke, men gruppen som trener med frivekter vil få et bedre resultat sammenlignet med gruppen som trente med treningsapparat.</t>
   </si>
   <si>
@@ -141,9 +129,6 @@
     <t>70 kvinner og menn med presarkopeni ble fordelt i kontroll (36) og intervensjonsgruppe (34). Intervensjonsgruppen trente tre gruppetreninger i uken i 10 uker. Helkroppsprogram med RPE mellom 6 og 7 (skala 1-10). Det ble gjort et tester før og etter. Paret T-test ble brukt for å se forskjell innad i gruppene. ANCOVA ble brukt få se forskjell mellom gruppene.</t>
   </si>
   <si>
-    <t>Er det forskjell på treningseffekten av å trene høyere vekt og lavere antall repetisjoner og lavere vekt og flere repetisjoner hos eldre mennesker.</t>
-  </si>
-  <si>
     <t>62 friske kvinner og menn mellom 60 og 83 år fordelt i to grupper (trening eller ikke trening) i 26 uker. De som trente, trente enten 50% av 1RM *13 rep eller 80% av 1RM 8 rep i en serie per treningsapparat (volum blir ca. det samme for begge). Ble gjort tester før og etter. ANOVA ble brukt for å se forskjell innad og mellom gruppene over tid. Pre og post-testene ble gjort i ANCOVA.</t>
   </si>
   <si>
@@ -160,6 +145,21 @@
   </si>
   <si>
     <t>Vincent et al. 2002</t>
+  </si>
+  <si>
+    <t>Gir trening med enkle øvelser effekt på funksjonell styrke og kroppssammensetning?</t>
+  </si>
+  <si>
+    <t>Spørsmål</t>
+  </si>
+  <si>
+    <t>Er det forskjell på treningseffekt mellom frivektstrening og apparattrening hos eldre mennesker?</t>
+  </si>
+  <si>
+    <t>Hva er effekten av trening på eldre mennesker? Og er det relatert til bedret livskvalitet, kroppssammensetning og funksjonell styrke?</t>
+  </si>
+  <si>
+    <t>Er det forskjell på treningseffekten av å trene høyere vekt og lavere antall repetisjoner og lavere vekt og flere repetisjoner hos eldre mennesker?</t>
   </si>
 </sst>
 </file>
@@ -531,150 +531,151 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49CE0A24-DA63-4ABA-B9D8-F4F413D42907}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="C2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+    <row r="3" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>8</v>
+      <c r="G5" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="4" t="s">
+    <row r="6" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
